--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,103 +55,103 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>old</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>good</t>
   </si>
   <si>
     <t>tea</t>
@@ -160,43 +160,40 @@
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
   </si>
   <si>
     <t>use</t>
@@ -560,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4108527131782946</v>
+        <v>0.3875968992248062</v>
       </c>
       <c r="C3">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3535353535353535</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +726,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.868421052631579</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>561</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>561</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +752,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8260869565217391</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>561</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>561</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -807,13 +804,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7142857142857143</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -825,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -833,13 +830,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7045454545454546</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -851,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -885,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6813559322033899</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L11">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -903,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -911,13 +908,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6617647058823529</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -929,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -937,13 +934,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6444444444444445</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -955,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -963,13 +960,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6338028169014085</v>
+        <v>0.65625</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -981,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -989,13 +986,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6324237560192616</v>
+        <v>0.6380417335473515</v>
       </c>
       <c r="L15">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="M15">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1007,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1015,13 +1012,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6164383561643836</v>
+        <v>0.6</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1033,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1041,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.5846153846153846</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1059,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1067,13 +1064,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5714285714285714</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1085,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1093,25 +1090,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5625</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L19">
+        <v>47</v>
+      </c>
+      <c r="M19">
+        <v>47</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>36</v>
-      </c>
-      <c r="M19">
-        <v>36</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1119,13 +1116,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5285714285714286</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1137,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1145,13 +1142,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5192307692307693</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L21">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1163,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1171,13 +1168,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5180722891566265</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1189,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1197,13 +1194,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5089820359281437</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L23">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M23">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1215,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1223,13 +1220,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5087719298245614</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1241,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1249,13 +1246,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5042735042735043</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L25">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1267,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1275,13 +1272,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1301,13 +1298,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4754098360655737</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1319,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1327,13 +1324,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4605263157894737</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1345,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1353,13 +1350,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4511278195488722</v>
+        <v>0.39</v>
       </c>
       <c r="L29">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1371,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1379,13 +1376,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.45</v>
+        <v>0.3696498054474708</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1397,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>55</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1405,13 +1402,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.4397590361445783</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L31">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="M31">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1423,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>93</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1431,13 +1428,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3891050583657588</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1449,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>157</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1457,13 +1454,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3676470588235294</v>
+        <v>0.3219178082191781</v>
       </c>
       <c r="L33">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="M33">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1475,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>258</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1483,13 +1480,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3178082191780822</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L34">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1501,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>498</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1509,13 +1506,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.2932330827067669</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1527,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1535,13 +1532,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.2870813397129187</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L36">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M36">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1553,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1561,13 +1558,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.2702702702702703</v>
+        <v>0.2465016146393972</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1579,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>81</v>
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1587,13 +1584,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2661870503597122</v>
+        <v>0.2446043165467626</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1605,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1613,13 +1610,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.2317880794701987</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1631,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1639,13 +1636,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.2303552206673843</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L40">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="M40">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1657,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>715</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1665,13 +1662,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.2080536912751678</v>
+        <v>0.1892583120204604</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="M41">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1683,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>118</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1691,13 +1688,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.1973509933774834</v>
+        <v>0.1867549668874172</v>
       </c>
       <c r="L42">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="M42">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1709,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1717,25 +1714,25 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.1880877742946709</v>
+        <v>0.1436314363143631</v>
       </c>
       <c r="L43">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M43">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>259</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1743,13 +1740,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1790281329923274</v>
+        <v>0.1365313653136531</v>
       </c>
       <c r="L44">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="M44">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1761,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>642</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1769,25 +1766,25 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1594594594594595</v>
+        <v>0.125</v>
       </c>
       <c r="L45">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M45">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>311</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1795,13 +1792,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1469298245614035</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="L46">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="M46">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1813,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>389</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1821,13 +1818,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1121718377088305</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L47">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M47">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1839,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>372</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1847,13 +1844,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1107011070110701</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1865,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>241</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1873,13 +1870,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1068181818181818</v>
+        <v>0.09975669099756691</v>
       </c>
       <c r="L49">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M49">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1891,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>393</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1899,25 +1896,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.08029197080291971</v>
+        <v>0.07460545193687231</v>
       </c>
       <c r="L50">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="M50">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>378</v>
+        <v>645</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1925,13 +1922,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.06641721234798878</v>
+        <v>0.06828811973807297</v>
       </c>
       <c r="L51">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M51">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N51">
         <v>0.96</v>
@@ -1943,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1951,51 +1948,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.06465517241379311</v>
+        <v>0.04246100519930676</v>
       </c>
       <c r="L52">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M52">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53">
-        <v>0.0390625</v>
-      </c>
-      <c r="L53">
-        <v>45</v>
-      </c>
-      <c r="M53">
-        <v>50</v>
-      </c>
-      <c r="N53">
-        <v>0.9</v>
-      </c>
-      <c r="O53">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
